--- a/thresholds/IGCSE/english-as-an-additional-language/english-as-an-additional-language-thresholds.xlsx
+++ b/thresholds/IGCSE/english-as-an-additional-language/english-as-an-additional-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,48 +575,48 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>180</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="n">
         <v>48</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -657,7 +657,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -691,14 +691,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -731,6 +731,47 @@
         </is>
       </c>
       <c r="K7" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>180</v>
+      </c>
+      <c r="C8" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" t="n">
+        <v>131</v>
+      </c>
+      <c r="E8" t="n">
+        <v>112</v>
+      </c>
+      <c r="F8" t="n">
+        <v>93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
